--- a/biology/Histoire de la zoologie et de la botanique/J.Ellis/J.Ellis.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/J.Ellis/J.Ellis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Ellis est un  naturaliste irlandais, né vers 1710 en Irlande et mort le 15 octobre 1776 à Londres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est marchand de lin à Londres. Il est commissionné en Floride en 1764 et en Dominique en 1770, il fait parvenir en Grande-Bretagne de nombreuses semences américaines. Ellis s’intéresse particulièrement au transport des semences et des plants. Il correspond avec Carl von Linné (1707-1778) qui le décrit comme une étoile de l’histoire naturelle. Il devient membre de la Royal Society en 1754, celle-ci lui offre la Médaille Copley en 1767.
 Il fait paraître Directions for bringing over Seeds and Plants from East-Indies... to which is added Figuere and Botanical Description of... Dionaea muscipula (1770), Historical Account of Coffee (1774), Description of Mangostan and Bread-fruit (1775), avec Daniel Solander (1733-1782) Natural History of Many Curious and Uncommon Zoophytes (1786). Linné lui dédie en 1763 le genre Ellisia de la famille des Hydrophyllaceae.
